--- a/rx_ofdm_vhd/doc/Timing.xlsx
+++ b/rx_ofdm_vhd/doc/Timing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plainer_git\ESD3\ofdm\rx_ofdm_vhd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C28B9EC-F9E2-480D-BC10-B901EEE7EB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6707E09-A3F1-4B1D-921F-45B37CC8658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="-3435" windowWidth="38700" windowHeight="15375" xr2:uid="{9DCFB5B4-1E9D-4CDC-817F-41171C9611C6}"/>
+    <workbookView xWindow="28680" yWindow="-5475" windowWidth="51840" windowHeight="21240" xr2:uid="{9DCFB5B4-1E9D-4CDC-817F-41171C9611C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>sys_clk_i</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Number of parallel FFTs</t>
+  </si>
+  <si>
+    <t>Bufferd Burst mit Quad</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F64B863-64B2-4D41-B1FF-15CB5CEFB389}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +462,7 @@
     <col min="8" max="8" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
@@ -473,7 +476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -493,7 +496,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -519,7 +522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -546,7 +549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -558,7 +561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -569,8 +572,18 @@
       <c r="F8">
         <v>423</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <f>K8*E2</f>
+        <v>2137.5</v>
+      </c>
+      <c r="K8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -581,8 +594,15 @@
       <c r="F9">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <f>K9*E2</f>
+        <v>2000</v>
+      </c>
+      <c r="K9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -590,14 +610,41 @@
         <f>E8+E9</f>
         <v>7362.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <f>J8+J9</f>
+        <v>4137.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="E11">
         <f>E10/E7</f>
         <v>3.6812499999999999</v>
+      </c>
+      <c r="J11">
+        <f>J10/E7</f>
+        <v>2.0687500000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>6250</v>
+      </c>
+      <c r="J32">
+        <f>I32*2</f>
+        <v>12500</v>
+      </c>
+      <c r="K32">
+        <f>J32*10</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <f>J32*127</f>
+        <v>1587500</v>
       </c>
     </row>
   </sheetData>

--- a/rx_ofdm_vhd/doc/Timing.xlsx
+++ b/rx_ofdm_vhd/doc/Timing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plainer_git\ESD3\ofdm\rx_ofdm_vhd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6707E09-A3F1-4B1D-921F-45B37CC8658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0843F879-3563-4DDC-840E-37A9BB9BE4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5475" windowWidth="51840" windowHeight="21240" xr2:uid="{9DCFB5B4-1E9D-4CDC-817F-41171C9611C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9DCFB5B4-1E9D-4CDC-817F-41171C9611C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>sys_clk_i</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Baudrate oversampled</t>
   </si>
   <si>
-    <t>64 MS/s</t>
-  </si>
-  <si>
     <t>16 MS/s</t>
   </si>
   <si>
@@ -91,6 +88,27 @@
   </si>
   <si>
     <t>Bufferd Burst mit Quad</t>
+  </si>
+  <si>
+    <t>Burst 4x</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>sink_sop -&gt; source_valid_rise</t>
+  </si>
+  <si>
+    <t>soll ns</t>
+  </si>
+  <si>
+    <t>1.6 MS/s</t>
+  </si>
+  <si>
+    <t>Gemessen Latenzy</t>
+  </si>
+  <si>
+    <t>Die 223 und die 95 Takte passen nicht mit den angegebenen 423 und 166Takten zusammen</t>
   </si>
 </sst>
 </file>
@@ -106,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,13 +150,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,21 +476,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F64B863-64B2-4D41-B1FF-15CB5CEFB389}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
@@ -476,7 +505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -496,12 +525,12 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>16000000</v>
@@ -522,89 +551,110 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <f>C4*4</f>
-        <v>64000000</v>
+        <f>C4/10</f>
+        <v>1600000</v>
       </c>
       <c r="D6">
         <f>1/C6</f>
-        <v>1.5624999999999999E-8</v>
+        <v>6.2500000000000005E-7</v>
       </c>
       <c r="E6" s="3">
         <f>D6*1000000000</f>
-        <v>15.625</v>
+        <v>625</v>
       </c>
       <c r="F6" s="2">
         <f>E6/E2</f>
-        <v>1.25</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <f>E6*128</f>
-        <v>2000</v>
+        <v>80000</v>
+      </c>
+      <c r="F7">
+        <f>E7/E2</f>
+        <v>6400</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <f>F8*E2</f>
         <v>5287.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>423</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8">
-        <f>K8*E2</f>
+        <f>K8*$E$2</f>
         <v>2137.5</v>
       </c>
       <c r="K8">
         <v>171</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8">
+        <f>O8*$E$2</f>
+        <v>20325</v>
+      </c>
+      <c r="O8">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <f>F9*E2</f>
         <v>2075</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>166</v>
       </c>
       <c r="J9">
-        <f>K9*E2</f>
+        <f>K9*$E$2</f>
         <v>2000</v>
       </c>
       <c r="K9">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <f>O9*$E$2</f>
+        <v>7512.5</v>
+      </c>
+      <c r="O9">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <f>E8+E9</f>
@@ -614,21 +664,80 @@
         <f>J8+J9</f>
         <v>4137.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <f>N8+N9</f>
+        <v>27837.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <f>E10/E7</f>
-        <v>3.6812499999999999</v>
+        <v>9.2031249999999995E-2</v>
       </c>
       <c r="J11">
-        <f>J10/E7</f>
-        <v>2.0687500000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.3">
+        <f>J10/$E$7</f>
+        <v>5.1718750000000001E-2</v>
+      </c>
+      <c r="N11">
+        <f>N10/$E$7</f>
+        <v>0.34796874999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>446000</v>
+      </c>
+      <c r="C18">
+        <f>B18/2000</f>
+        <v>223</v>
+      </c>
+      <c r="D18">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>190000</v>
+      </c>
+      <c r="C19">
+        <f>B19/2000</f>
+        <v>95</v>
+      </c>
+      <c r="D19">
+        <f>F9*2</f>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I32">
         <v>6250</v>
       </c>
@@ -648,6 +757,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B16:D16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/rx_ofdm_vhd/doc/Timing.xlsx
+++ b/rx_ofdm_vhd/doc/Timing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plainer_git\ESD3\ofdm\rx_ofdm_vhd\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Nextcloud\Studium\Master\3. Semester\Digital_Transmission_Laboratory\ofdm\rx_ofdm_vhd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0843F879-3563-4DDC-840E-37A9BB9BE4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42499949-1EE2-4AA1-A2C8-F1B3C1B41090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9DCFB5B4-1E9D-4CDC-817F-41171C9611C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DCFB5B4-1E9D-4CDC-817F-41171C9611C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>sys_clk_i</t>
   </si>
@@ -42,57 +42,18 @@
     <t>80 MHz</t>
   </si>
   <si>
-    <t>Hz</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>ns</t>
-  </si>
-  <si>
     <t>Baudrate</t>
   </si>
   <si>
     <t>Takte</t>
   </si>
   <si>
-    <t>Alle 5 Takte kommt ein 12bit Paar</t>
-  </si>
-  <si>
-    <t>Baudrate oversampled</t>
-  </si>
-  <si>
-    <t>16 MS/s</t>
-  </si>
-  <si>
-    <t>Alle 2 Takte kommt ein 12bit Paar</t>
-  </si>
-  <si>
     <t>Calculation Latency</t>
   </si>
   <si>
-    <t>Time for 128 Chips</t>
-  </si>
-  <si>
-    <t>Alle 2000 Takte kommt ein neues Data_First</t>
-  </si>
-  <si>
     <t>Throughput Latency</t>
   </si>
   <si>
-    <t>Latency</t>
-  </si>
-  <si>
-    <t>Number of parallel FFTs</t>
-  </si>
-  <si>
-    <t>Bufferd Burst mit Quad</t>
-  </si>
-  <si>
-    <t>Burst 4x</t>
-  </si>
-  <si>
     <t>ps</t>
   </si>
   <si>
@@ -109,16 +70,101 @@
   </si>
   <si>
     <t>Die 223 und die 95 Takte passen nicht mit den angegebenen 423 und 166Takten zusammen</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>Quad</t>
+  </si>
+  <si>
+    <t>Bufferd Burst</t>
+  </si>
+  <si>
+    <t>Streaming</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Variable Streaming</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>In/Out Reihenfolgen</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Modus</t>
+  </si>
+  <si>
+    <t>Alle 50 Takte kommt ein 12bit Paar</t>
+  </si>
+  <si>
+    <t>ALMs</t>
+  </si>
+  <si>
+    <t>DSP</t>
+  </si>
+  <si>
+    <t>M10K</t>
+  </si>
+  <si>
+    <t>Registers</t>
+  </si>
+  <si>
+    <t>Number of cycles the FFT takes to perform the calculation</t>
+  </si>
+  <si>
+    <t>Number of cycles from data in to data out</t>
+  </si>
+  <si>
+    <t>Nicht relevant für Burst</t>
+  </si>
+  <si>
+    <t>Gewählte Version</t>
+  </si>
+  <si>
+    <t>Zeit für 128 Chips</t>
+  </si>
+  <si>
+    <t>Taktrate/Hz</t>
+  </si>
+  <si>
+    <t>Zeit/s</t>
+  </si>
+  <si>
+    <t>Zeit/ns</t>
+  </si>
+  <si>
+    <t>Zeit für 32 Chips</t>
+  </si>
+  <si>
+    <t>Zeit zum Ein- und Auslesen</t>
+  </si>
+  <si>
+    <t>Benötigte / Verfügbare Zeit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,12 +179,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -146,24 +191,169 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,290 +666,456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F64B863-64B2-4D41-B1FF-15CB5CEFB389}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="M1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="26">
         <f>80000000</f>
         <v>80000000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="26">
         <f>1/C2</f>
         <v>1.2499999999999999E-8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="27">
         <f>D2*1000000000</f>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F2" s="17">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="10">
+        <v>223</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10">
+        <v>653.9</v>
+      </c>
+      <c r="O2" s="10">
+        <v>2</v>
+      </c>
+      <c r="P2" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1600000</v>
+      </c>
+      <c r="D3" s="2">
+        <f>1/C3</f>
+        <v>6.2500000000000005E-7</v>
+      </c>
+      <c r="E3" s="21">
+        <f>D3*1000000000</f>
+        <v>625</v>
+      </c>
+      <c r="F3" s="22">
+        <f>E3/E2</f>
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>423</v>
+      </c>
+      <c r="M3" s="2">
+        <v>166</v>
+      </c>
+      <c r="N3" s="2">
+        <v>639</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <f>F4*E2</f>
+        <v>5287.5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>423</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2">
+        <v>423</v>
+      </c>
+      <c r="M4" s="2">
+        <v>166</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1534</v>
+      </c>
+      <c r="O4" s="2">
+        <v>6</v>
+      </c>
+      <c r="P4" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <f>E3*128</f>
+        <v>80000</v>
+      </c>
+      <c r="F5" s="8">
+        <f>E5/E2</f>
+        <v>6400</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2">
+        <v>171</v>
+      </c>
+      <c r="M5" s="2">
+        <v>160</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1528</v>
+      </c>
+      <c r="O5" s="2">
+        <v>6</v>
+      </c>
+      <c r="P5" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <f>128*2*E2</f>
+        <v>3200</v>
+      </c>
+      <c r="F6" s="8">
+        <f>E6/E2</f>
+        <v>256</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2">
+        <v>128</v>
+      </c>
+      <c r="M6" s="2">
+        <v>128</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1651</v>
+      </c>
+      <c r="O6" s="2">
+        <v>6</v>
+      </c>
+      <c r="P6" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <f>(E4+E6)/E5</f>
+        <v>0.10609375</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="13">
+        <v>128</v>
+      </c>
+      <c r="M7" s="13">
+        <v>256</v>
+      </c>
+      <c r="N7" s="13">
+        <v>8611</v>
+      </c>
+      <c r="O7" s="13">
+        <v>36</v>
+      </c>
+      <c r="P7" s="13">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>15156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16">
+        <f>E3*32</f>
+        <v>20000</v>
+      </c>
+      <c r="F8" s="17">
+        <f>E8/E2</f>
+        <v>1600</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24">
+        <f>(E4+E6)/E8</f>
+        <v>0.424375</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="I9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>16000000</v>
-      </c>
-      <c r="D4">
-        <f>1/C4</f>
-        <v>6.2499999999999997E-8</v>
-      </c>
-      <c r="E4" s="3">
-        <f>D4*1000000000</f>
-        <v>62.5</v>
-      </c>
-      <c r="F4" s="2">
-        <f>E4/E2</f>
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <f>C4/10</f>
-        <v>1600000</v>
-      </c>
-      <c r="D6">
-        <f>1/C6</f>
-        <v>6.2500000000000005E-7</v>
-      </c>
-      <c r="E6" s="3">
-        <f>D6*1000000000</f>
-        <v>625</v>
-      </c>
-      <c r="F6" s="2">
-        <f>E6/E2</f>
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <f>E6*128</f>
-        <v>80000</v>
-      </c>
-      <c r="F7">
-        <f>E7/E2</f>
-        <v>6400</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="I17">
+        <v>446000</v>
+      </c>
+      <c r="J17">
+        <f>I17/2000</f>
+        <v>223</v>
+      </c>
+      <c r="K17">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>190000</v>
+      </c>
+      <c r="J18">
+        <f>I18/2000</f>
+        <v>95</v>
+      </c>
+      <c r="K18" t="e">
+        <f>#REF!*2</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
         <v>11</v>
-      </c>
-      <c r="E8">
-        <f>F8*E2</f>
-        <v>5287.5</v>
-      </c>
-      <c r="F8" s="5">
-        <v>423</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8">
-        <f>K8*$E$2</f>
-        <v>2137.5</v>
-      </c>
-      <c r="K8">
-        <v>171</v>
-      </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8">
-        <f>O8*$E$2</f>
-        <v>20325</v>
-      </c>
-      <c r="O8">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <f>F9*E2</f>
-        <v>2075</v>
-      </c>
-      <c r="F9" s="5">
-        <v>166</v>
-      </c>
-      <c r="J9">
-        <f>K9*$E$2</f>
-        <v>2000</v>
-      </c>
-      <c r="K9">
-        <v>160</v>
-      </c>
-      <c r="N9">
-        <f>O9*$E$2</f>
-        <v>7512.5</v>
-      </c>
-      <c r="O9">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <f>E8+E9</f>
-        <v>7362.5</v>
-      </c>
-      <c r="J10">
-        <f>J8+J9</f>
-        <v>4137.5</v>
-      </c>
-      <c r="N10">
-        <f>N8+N9</f>
-        <v>27837.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <f>E10/E7</f>
-        <v>9.2031249999999995E-2</v>
-      </c>
-      <c r="J11">
-        <f>J10/$E$7</f>
-        <v>5.1718750000000001E-2</v>
-      </c>
-      <c r="N11">
-        <f>N10/$E$7</f>
-        <v>0.34796874999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>446000</v>
-      </c>
-      <c r="C18">
-        <f>B18/2000</f>
-        <v>223</v>
-      </c>
-      <c r="D18">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>190000</v>
-      </c>
-      <c r="C19">
-        <f>B19/2000</f>
-        <v>95</v>
-      </c>
-      <c r="D19">
-        <f>F9*2</f>
-        <v>332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I32">
-        <v>6250</v>
-      </c>
-      <c r="J32">
-        <f>I32*2</f>
-        <v>12500</v>
-      </c>
-      <c r="K32">
-        <f>J32*10</f>
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J34">
-        <f>J32*127</f>
-        <v>1587500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rx_ofdm_vhd/doc/Timing.xlsx
+++ b/rx_ofdm_vhd/doc/Timing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Nextcloud\Studium\Master\3. Semester\Digital_Transmission_Laboratory\ofdm\rx_ofdm_vhd\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plainer_git\ESD3\ofdm\rx_ofdm_vhd\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42499949-1EE2-4AA1-A2C8-F1B3C1B41090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8F5477-3B97-4F93-8564-977EC9CE574A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DCFB5B4-1E9D-4CDC-817F-41171C9611C6}"/>
+    <workbookView xWindow="28680" yWindow="-5475" windowWidth="51840" windowHeight="21240" xr2:uid="{9DCFB5B4-1E9D-4CDC-817F-41171C9611C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Modus</t>
   </si>
   <si>
-    <t>Alle 50 Takte kommt ein 12bit Paar</t>
-  </si>
-  <si>
     <t>ALMs</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Benötigte / Verfügbare Zeit</t>
+  </si>
+  <si>
+    <t>Alle 40 Takte kommt ein 12bit Paar</t>
   </si>
 </sst>
 </file>
@@ -315,9 +315,6 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -351,6 +348,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -669,405 +669,406 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <f>80000000</f>
         <v>80000000</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <f>1/C2</f>
         <v>1.2499999999999999E-8</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <f>D2*1000000000</f>
         <v>12.5</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="9">
         <v>223</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9">
         <v>653.9</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>2</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="9">
         <v>3</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="10">
         <v>1228</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="20">
-        <v>1600000</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="19">
+        <f>1600000*160/128</f>
+        <v>2000000</v>
+      </c>
+      <c r="D3" s="19">
         <f>1/C3</f>
-        <v>6.2500000000000005E-7</v>
-      </c>
-      <c r="E3" s="21">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="E3" s="20">
         <f>D3*1000000000</f>
-        <v>625</v>
-      </c>
-      <c r="F3" s="22">
+        <v>500</v>
+      </c>
+      <c r="F3" s="21">
         <f>E3/E2</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>423</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>166</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>639</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>2</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>3</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="7">
         <v>1382</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <f>F4*E2</f>
         <v>5287.5</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>423</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>423</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>166</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>1534</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>6</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>8</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <v>3617</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <f>E3*128</f>
-        <v>80000</v>
-      </c>
-      <c r="F5" s="8">
+        <v>64000</v>
+      </c>
+      <c r="F5" s="7">
         <f>E5/E2</f>
-        <v>6400</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="6" t="s">
+        <v>5120</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>171</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>160</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>1528</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>6</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>16</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <v>3713</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <f>128*2*E2</f>
         <v>3200</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f>E6/E2</f>
         <v>256</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>128</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>128</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>1651</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>6</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>20</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <v>3878</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
         <f>(E4+E6)/E5</f>
-        <v>0.10609375</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="12" t="s">
+        <v>0.13261718750000001</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>128</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>256</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>8611</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="12">
         <v>36</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="12">
         <v>62</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="13">
         <v>15156</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15">
         <f>E3*32</f>
-        <v>20000</v>
-      </c>
-      <c r="F8" s="17">
+        <v>16000</v>
+      </c>
+      <c r="F8" s="16">
         <f>E8/E2</f>
-        <v>1600</v>
+        <v>1280</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23">
         <f>(E4+E6)/E8</f>
-        <v>0.424375</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="I9" s="15" t="s">
+        <v>0.53046875000000004</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="I9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I15" s="1" t="s">
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
         <v>6</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>7</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:11" x14ac:dyDescent="0.3">
       <c r="I18">
         <v>190000</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:11" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
         <v>11</v>
       </c>
